--- a/natmiOut/OldD4/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H2">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I2">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J2">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.95177621172252</v>
+        <v>2.021791</v>
       </c>
       <c r="N2">
-        <v>1.95177621172252</v>
+        <v>6.065372999999999</v>
       </c>
       <c r="O2">
-        <v>0.3885541263000972</v>
+        <v>0.3781620571349336</v>
       </c>
       <c r="P2">
-        <v>0.3885541263000972</v>
+        <v>0.426545054769166</v>
       </c>
       <c r="Q2">
-        <v>2.399129079150837</v>
+        <v>3.203932871630333</v>
       </c>
       <c r="R2">
-        <v>2.399129079150837</v>
+        <v>28.835395844673</v>
       </c>
       <c r="S2">
-        <v>0.2792208728362147</v>
+        <v>0.195823256341472</v>
       </c>
       <c r="T2">
-        <v>0.2792208728362147</v>
+        <v>0.242922406506425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H3">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I3">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J3">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.252672765106433</v>
+        <v>0.267999</v>
       </c>
       <c r="N3">
-        <v>0.252672765106433</v>
+        <v>0.803997</v>
       </c>
       <c r="O3">
-        <v>0.05030138439852928</v>
+        <v>0.05012736388187754</v>
       </c>
       <c r="P3">
-        <v>0.05030138439852928</v>
+        <v>0.05654078395495961</v>
       </c>
       <c r="Q3">
-        <v>0.3105861085074408</v>
+        <v>0.424698104633</v>
       </c>
       <c r="R3">
-        <v>0.3105861085074408</v>
+        <v>3.822282941697</v>
       </c>
       <c r="S3">
-        <v>0.03614733574024532</v>
+        <v>0.02595739959088657</v>
       </c>
       <c r="T3">
-        <v>0.03614733574024532</v>
+        <v>0.03220063894898899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H4">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I4">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J4">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.446433023889388</v>
+        <v>0.6105999999999999</v>
       </c>
       <c r="N4">
-        <v>0.446433023889388</v>
+        <v>1.8318</v>
       </c>
       <c r="O4">
-        <v>0.08887463250500591</v>
+        <v>0.1142085171447447</v>
       </c>
       <c r="P4">
-        <v>0.08887463250500591</v>
+        <v>0.1288206399385756</v>
       </c>
       <c r="Q4">
-        <v>0.548756790390957</v>
+        <v>0.9676180235333333</v>
       </c>
       <c r="R4">
-        <v>0.548756790390957</v>
+        <v>8.7085622118</v>
       </c>
       <c r="S4">
-        <v>0.06386665532893958</v>
+        <v>0.05914047511444198</v>
       </c>
       <c r="T4">
-        <v>0.06386665532893958</v>
+        <v>0.07336486383252429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H5">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I5">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J5">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.568562434381183</v>
+        <v>0.6266583333333333</v>
       </c>
       <c r="N5">
-        <v>0.568562434381183</v>
+        <v>1.879975</v>
       </c>
       <c r="O5">
-        <v>0.113187812522353</v>
+        <v>0.1172121175997333</v>
       </c>
       <c r="P5">
-        <v>0.113187812522353</v>
+        <v>0.1322085285339687</v>
       </c>
       <c r="Q5">
-        <v>0.6988786221719823</v>
+        <v>0.9930656697194444</v>
       </c>
       <c r="R5">
-        <v>0.6988786221719823</v>
+        <v>8.937591027475001</v>
       </c>
       <c r="S5">
-        <v>0.08133847427604921</v>
+        <v>0.06069582634745774</v>
       </c>
       <c r="T5">
-        <v>0.08133847427604921</v>
+        <v>0.07529430608338786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H6">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I6">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J6">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.80373272250214</v>
+        <v>1.819313</v>
       </c>
       <c r="N6">
-        <v>1.80373272250214</v>
+        <v>3.638626</v>
       </c>
       <c r="O6">
-        <v>0.3590820442740147</v>
+        <v>0.3402899442387109</v>
       </c>
       <c r="P6">
-        <v>0.3590820442740147</v>
+        <v>0.2558849928033299</v>
       </c>
       <c r="Q6">
-        <v>2.217153585324057</v>
+        <v>2.883065917537667</v>
       </c>
       <c r="R6">
-        <v>2.217153585324057</v>
+        <v>17.298395505226</v>
       </c>
       <c r="S6">
-        <v>0.2580417888666688</v>
+        <v>0.1762119803502797</v>
       </c>
       <c r="T6">
-        <v>0.2580417888666688</v>
+        <v>0.1457295015981453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H7">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I7">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J7">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.95177621172252</v>
+        <v>2.021791</v>
       </c>
       <c r="N7">
-        <v>1.95177621172252</v>
+        <v>6.065372999999999</v>
       </c>
       <c r="O7">
-        <v>0.3885541263000972</v>
+        <v>0.3781620571349336</v>
       </c>
       <c r="P7">
-        <v>0.3885541263000972</v>
+        <v>0.426545054769166</v>
       </c>
       <c r="Q7">
-        <v>0.939416115417819</v>
+        <v>1.283974092857667</v>
       </c>
       <c r="R7">
-        <v>0.939416115417819</v>
+        <v>11.555766835719</v>
       </c>
       <c r="S7">
-        <v>0.1093332534638825</v>
+        <v>0.07847604740655308</v>
       </c>
       <c r="T7">
-        <v>0.1093332534638825</v>
+        <v>0.09735100235423277</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H8">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I8">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J8">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.252672765106433</v>
+        <v>0.267999</v>
       </c>
       <c r="N8">
-        <v>0.252672765106433</v>
+        <v>0.803997</v>
       </c>
       <c r="O8">
-        <v>0.05030138439852928</v>
+        <v>0.05012736388187754</v>
       </c>
       <c r="P8">
-        <v>0.05030138439852928</v>
+        <v>0.05654078395495961</v>
       </c>
       <c r="Q8">
-        <v>0.1216147968412221</v>
+        <v>0.170197499599</v>
       </c>
       <c r="R8">
-        <v>0.1216147968412221</v>
+        <v>1.531777496391</v>
       </c>
       <c r="S8">
-        <v>0.01415404865828397</v>
+        <v>0.0104024116384477</v>
       </c>
       <c r="T8">
-        <v>0.01415404865828397</v>
+        <v>0.012904385903356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H9">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I9">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J9">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.446433023889388</v>
+        <v>0.6105999999999999</v>
       </c>
       <c r="N9">
-        <v>0.446433023889388</v>
+        <v>1.8318</v>
       </c>
       <c r="O9">
-        <v>0.08887463250500591</v>
+        <v>0.1142085171447447</v>
       </c>
       <c r="P9">
-        <v>0.08887463250500591</v>
+        <v>0.1288206399385756</v>
       </c>
       <c r="Q9">
-        <v>0.2148742128208818</v>
+        <v>0.3877723172666666</v>
       </c>
       <c r="R9">
-        <v>0.2148742128208818</v>
+        <v>3.4899508554</v>
       </c>
       <c r="S9">
-        <v>0.02500797717606633</v>
+        <v>0.02370050838412146</v>
       </c>
       <c r="T9">
-        <v>0.02500797717606633</v>
+        <v>0.02940092325937475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H10">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I10">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J10">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.568562434381183</v>
+        <v>0.6266583333333333</v>
       </c>
       <c r="N10">
-        <v>0.568562434381183</v>
+        <v>1.879975</v>
       </c>
       <c r="O10">
-        <v>0.113187812522353</v>
+        <v>0.1172121175997333</v>
       </c>
       <c r="P10">
-        <v>0.113187812522353</v>
+        <v>0.1322085285339687</v>
       </c>
       <c r="Q10">
-        <v>0.2736567390620518</v>
+        <v>0.3979704455472222</v>
       </c>
       <c r="R10">
-        <v>0.2736567390620518</v>
+        <v>3.581734009925</v>
       </c>
       <c r="S10">
-        <v>0.03184933824630379</v>
+        <v>0.02432381441720644</v>
       </c>
       <c r="T10">
-        <v>0.03184933824630379</v>
+        <v>0.03017414603370622</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6350676666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.905203</v>
+      </c>
+      <c r="I11">
+        <v>0.2075196226747617</v>
+      </c>
+      <c r="J11">
+        <v>0.2282314640991825</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.819313</v>
+      </c>
+      <c r="N11">
+        <v>3.638626</v>
+      </c>
+      <c r="O11">
+        <v>0.3402899442387109</v>
+      </c>
+      <c r="P11">
+        <v>0.2558849928033299</v>
+      </c>
+      <c r="Q11">
+        <v>1.155386861846333</v>
+      </c>
+      <c r="R11">
+        <v>6.932321171078</v>
+      </c>
+      <c r="S11">
+        <v>0.07061684082843296</v>
+      </c>
+      <c r="T11">
+        <v>0.05840100654851278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.022067</v>
+      </c>
+      <c r="I12">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J12">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.021791</v>
+      </c>
+      <c r="N12">
+        <v>6.065372999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.3781620571349336</v>
+      </c>
+      <c r="P12">
+        <v>0.426545054769166</v>
+      </c>
+      <c r="Q12">
+        <v>0.01487162066566667</v>
+      </c>
+      <c r="R12">
+        <v>0.133844585991</v>
+      </c>
+      <c r="S12">
+        <v>0.0009089482528215664</v>
+      </c>
+      <c r="T12">
+        <v>0.001127567282305799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.022067</v>
+      </c>
+      <c r="I13">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J13">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.267999</v>
+      </c>
+      <c r="N13">
+        <v>0.803997</v>
+      </c>
+      <c r="O13">
+        <v>0.05012736388187754</v>
+      </c>
+      <c r="P13">
+        <v>0.05654078395495961</v>
+      </c>
+      <c r="Q13">
+        <v>0.001971311311</v>
+      </c>
+      <c r="R13">
+        <v>0.017741801799</v>
+      </c>
+      <c r="S13">
+        <v>0.000120485857740947</v>
+      </c>
+      <c r="T13">
+        <v>0.0001494649566105853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.022067</v>
+      </c>
+      <c r="I14">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J14">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6105999999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.8318</v>
+      </c>
+      <c r="O14">
+        <v>0.1142085171447447</v>
+      </c>
+      <c r="P14">
+        <v>0.1288206399385756</v>
+      </c>
+      <c r="Q14">
+        <v>0.004491370066666666</v>
+      </c>
+      <c r="R14">
+        <v>0.04042233059999999</v>
+      </c>
+      <c r="S14">
+        <v>0.0002745109673417521</v>
+      </c>
+      <c r="T14">
+        <v>0.0003405359815015106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.022067</v>
+      </c>
+      <c r="I15">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J15">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6266583333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.879975</v>
+      </c>
+      <c r="O15">
+        <v>0.1172121175997333</v>
+      </c>
+      <c r="P15">
+        <v>0.1322085285339687</v>
+      </c>
+      <c r="Q15">
+        <v>0.004609489813888889</v>
+      </c>
+      <c r="R15">
+        <v>0.041485408325</v>
+      </c>
+      <c r="S15">
+        <v>0.0002817304049723281</v>
+      </c>
+      <c r="T15">
+        <v>0.0003494918287058099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.022067</v>
+      </c>
+      <c r="I16">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J16">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.819313</v>
+      </c>
+      <c r="N16">
+        <v>3.638626</v>
+      </c>
+      <c r="O16">
+        <v>0.3402899442387109</v>
+      </c>
+      <c r="P16">
+        <v>0.2558849928033299</v>
+      </c>
+      <c r="Q16">
+        <v>0.01338225999033333</v>
+      </c>
+      <c r="R16">
+        <v>0.08029355994199999</v>
+      </c>
+      <c r="S16">
+        <v>0.0008179190493406898</v>
+      </c>
+      <c r="T16">
+        <v>0.0006764292369401221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.833154</v>
+      </c>
+      <c r="H17">
+        <v>1.666308</v>
+      </c>
+      <c r="I17">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J17">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.021791</v>
+      </c>
+      <c r="N17">
+        <v>6.065372999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.3781620571349336</v>
+      </c>
+      <c r="P17">
+        <v>0.426545054769166</v>
+      </c>
+      <c r="Q17">
+        <v>1.684463258814</v>
+      </c>
+      <c r="R17">
+        <v>10.106779552884</v>
+      </c>
+      <c r="S17">
+        <v>0.102953805134087</v>
+      </c>
+      <c r="T17">
+        <v>0.08514407862620252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.481313436333332</v>
-      </c>
-      <c r="H11">
-        <v>0.481313436333332</v>
-      </c>
-      <c r="I11">
-        <v>0.2813848729518825</v>
-      </c>
-      <c r="J11">
-        <v>0.2813848729518825</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.80373272250214</v>
-      </c>
-      <c r="N11">
-        <v>1.80373272250214</v>
-      </c>
-      <c r="O11">
-        <v>0.3590820442740147</v>
-      </c>
-      <c r="P11">
-        <v>0.3590820442740147</v>
-      </c>
-      <c r="Q11">
-        <v>0.8681607948943814</v>
-      </c>
-      <c r="R11">
-        <v>0.8681607948943814</v>
-      </c>
-      <c r="S11">
-        <v>0.1010402554073459</v>
-      </c>
-      <c r="T11">
-        <v>0.1010402554073459</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.833154</v>
+      </c>
+      <c r="H18">
+        <v>1.666308</v>
+      </c>
+      <c r="I18">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J18">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.267999</v>
+      </c>
+      <c r="N18">
+        <v>0.803997</v>
+      </c>
+      <c r="O18">
+        <v>0.05012736388187754</v>
+      </c>
+      <c r="P18">
+        <v>0.05654078395495961</v>
+      </c>
+      <c r="Q18">
+        <v>0.223284438846</v>
+      </c>
+      <c r="R18">
+        <v>1.339706633076</v>
+      </c>
+      <c r="S18">
+        <v>0.01364706679480232</v>
+      </c>
+      <c r="T18">
+        <v>0.01128629414600404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.833154</v>
+      </c>
+      <c r="H19">
+        <v>1.666308</v>
+      </c>
+      <c r="I19">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J19">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6105999999999999</v>
+      </c>
+      <c r="N19">
+        <v>1.8318</v>
+      </c>
+      <c r="O19">
+        <v>0.1142085171447447</v>
+      </c>
+      <c r="P19">
+        <v>0.1288206399385756</v>
+      </c>
+      <c r="Q19">
+        <v>0.5087238323999999</v>
+      </c>
+      <c r="R19">
+        <v>3.0523429944</v>
+      </c>
+      <c r="S19">
+        <v>0.03109302267883946</v>
+      </c>
+      <c r="T19">
+        <v>0.02571431686517511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.833154</v>
+      </c>
+      <c r="H20">
+        <v>1.666308</v>
+      </c>
+      <c r="I20">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J20">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6266583333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.879975</v>
+      </c>
+      <c r="O20">
+        <v>0.1172121175997333</v>
+      </c>
+      <c r="P20">
+        <v>0.1322085285339687</v>
+      </c>
+      <c r="Q20">
+        <v>0.5221028970499999</v>
+      </c>
+      <c r="R20">
+        <v>3.1326173823</v>
+      </c>
+      <c r="S20">
+        <v>0.03191074643009675</v>
+      </c>
+      <c r="T20">
+        <v>0.02639058458816879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.833154</v>
+      </c>
+      <c r="H21">
+        <v>1.666308</v>
+      </c>
+      <c r="I21">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J21">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.819313</v>
+      </c>
+      <c r="N21">
+        <v>3.638626</v>
+      </c>
+      <c r="O21">
+        <v>0.3402899442387109</v>
+      </c>
+      <c r="P21">
+        <v>0.2558849928033299</v>
+      </c>
+      <c r="Q21">
+        <v>1.515767903202</v>
+      </c>
+      <c r="R21">
+        <v>6.063071612808</v>
+      </c>
+      <c r="S21">
+        <v>0.0926432040106575</v>
+      </c>
+      <c r="T21">
+        <v>0.05107805541973177</v>
       </c>
     </row>
   </sheetData>
